--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V198"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18673,6 +18673,98 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>4</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>06/10/2023 23:56</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>06/10/2023 23:56</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T199" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>06/10/2023 23:53</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-huachipato/IuHfISpa/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,24 +4300,24 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>26/02/2023 21:58</t>
+          <t>26/02/2023 21:53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/02/2023 21:53</t>
+          <t>26/02/2023 21:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
         <v>3</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>A. Italiano</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:28</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>4.99</v>
-      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:29</t>
+          <t>28/02/2023 00:11</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.21</v>
+        <v>1.87</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:05</t>
+          <t>28/02/2023 00:28</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.16</v>
+        <v>4.48</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>4.99</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,32 +6224,32 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>18/03/2023 21:46</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>16/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>18/03/2023 21:57</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>16/03/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>18/03/2023 21:57</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18/03/2023 21:46</t>
+          <t>18/03/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.43</v>
+        <v>3.47</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.31</v>
+        <v>3.55</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.64</v>
+        <v>3.56</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>16/03/2023 03:12</t>
+          <t>13/03/2023 22:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>20/03/2023 00:27</t>
+          <t>20/03/2023 00:23</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-u-catolica/2esGamaF/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-palestino/WWniiP6e/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.56</v>
+        <v>3.64</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>13/03/2023 22:12</t>
+          <t>16/03/2023 03:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>20/03/2023 00:23</t>
+          <t>20/03/2023 00:27</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-palestino/WWniiP6e/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-u-catolica/2esGamaF/</t>
         </is>
       </c>
     </row>
@@ -18762,6 +18762,190 @@
       <c r="V199" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-huachipato/IuHfISpa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45206.72916666666</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>2</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:23</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/curico-unido-cobresal/4v8WDDgD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>3</v>
+      </c>
+      <c r="J201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>02/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T201" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:59</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-u-catolica/Qm9SEgv7/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V201"/>
+  <dimension ref="A1:V202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,24 +4300,24 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>26/02/2023 21:53</t>
+          <t>26/02/2023 21:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/02/2023 21:58</t>
+          <t>26/02/2023 21:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Copiapo</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>23/04/2023 09:27</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>23/04/2023 12:26</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.1</v>
+        <v>4.83</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.58</v>
+        <v>6.51</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>23/04/2023 12:26</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-copiapo/bJrxzqgI/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-curico-unido/dEA2j4wa/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Curico Unido</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 09:27</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 12:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.83</v>
+        <v>4.1</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.51</v>
+        <v>3.58</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 12:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-curico-unido/dEA2j4wa/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-copiapo/bJrxzqgI/</t>
         </is>
       </c>
     </row>
@@ -18946,6 +18946,98 @@
       <c r="V201" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-u-catolica/Qm9SEgv7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45207.04166666666</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>3</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>U. Espanola</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>01/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>01/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>01/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T202" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-espanola/SjOsLU0t/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V202"/>
+  <dimension ref="A1:V204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.21</v>
+        <v>1.87</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:05</t>
+          <t>28/02/2023 00:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.16</v>
+        <v>4.48</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>4.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
         <v>3</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>A. Italiano</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:28</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>4.99</v>
-      </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:29</t>
+          <t>28/02/2023 00:11</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>2</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Curico Unido</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 09:27</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 12:26</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.83</v>
+        <v>4.1</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>6.51</v>
+        <v>3.58</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 12:26</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-curico-unido/dEA2j4wa/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-copiapo/bJrxzqgI/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Copiapo</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>23/04/2023 09:27</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>23/04/2023 12:26</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.1</v>
+        <v>4.83</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.58</v>
+        <v>6.51</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>23/04/2023 12:26</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-copiapo/bJrxzqgI/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-curico-unido/dEA2j4wa/</t>
         </is>
       </c>
     </row>
@@ -19038,6 +19038,190 @@
       <c r="V202" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-espanola/SjOsLU0t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45207.72916666666</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:23</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:22</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:23</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-magallanes/AFDnKlGn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45207.83333333334</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/palestino-colo-colo/8CENFZO0/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V204"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19225,6 +19225,98 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45208.04166666666</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>A. Italiano</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>02/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>02/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>02/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/a-italiano-nublense/l6CjJ8Vh/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V205"/>
+  <dimension ref="A1:V206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,24 +4300,24 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>26/02/2023 21:58</t>
+          <t>26/02/2023 21:53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/02/2023 21:53</t>
+          <t>26/02/2023 21:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>O'Higgins</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.94</v>
+        <v>2.6</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.89</v>
+        <v>2.48</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.29</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.97</v>
+        <v>2.7</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.26</v>
+        <v>3.14</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-o-higgins/0CG1aaMT/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-de-chile/l8Zu4N7b/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.29</v>
+        <v>3.61</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.7</v>
+        <v>3.97</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.14</v>
+        <v>4.26</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-de-chile/l8Zu4N7b/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-o-higgins/0CG1aaMT/</t>
         </is>
       </c>
     </row>
@@ -19314,6 +19314,98 @@
       <c r="V205" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/a-italiano-nublense/l6CjJ8Vh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45236.95833333334</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>06/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>06/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T206" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>06/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-de-chile-everton/IsdExcWD/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V206"/>
+  <dimension ref="A1:V207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19409,6 +19409,98 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45237.91666666666</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>20/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>20/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>20/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>07/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-colo-colo/r7IF03Jd/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V207"/>
+  <dimension ref="A1:V208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,24 +4300,24 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>26/02/2023 21:53</t>
+          <t>26/02/2023 21:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/02/2023 21:58</t>
+          <t>26/02/2023 21:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
         <v>3</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>A. Italiano</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:28</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>4.99</v>
-      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:29</t>
+          <t>28/02/2023 00:11</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.21</v>
+        <v>1.87</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:05</t>
+          <t>28/02/2023 00:28</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.16</v>
+        <v>4.48</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>4.99</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18/03/2023 21:46</t>
+          <t>18/03/2023 21:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.43</v>
+        <v>3.47</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.31</v>
+        <v>3.55</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,32 +6316,32 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
+          <t>18/03/2023 21:46</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>16/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
           <t>18/03/2023 21:57</t>
         </is>
       </c>
-      <c r="R64" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>16/03/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>18/03/2023 21:57</t>
-        </is>
-      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
         </is>
       </c>
     </row>
@@ -19498,6 +19498,98 @@
       <c r="V207" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-colo-colo/r7IF03Jd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45241.79166666666</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>3</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>06/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>06/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>06/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-catolica-u-de-chile/dWFbHn05/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V208"/>
+  <dimension ref="A1:V210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.43</v>
+        <v>2.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.18</v>
+        <v>2.04</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:57</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:58</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.94</v>
+        <v>3.03</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.26</v>
+        <v>3.99</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:57</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-palestino/WGWP0Wvo/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-curico-unido/4Mz9Ngnb/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Curico Unido</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.34</v>
+        <v>3.43</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>04/02/2023 22:12</t>
+          <t>06/02/2023 00:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.04</v>
+        <v>3.18</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:57</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="N27" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>06/02/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>3.62</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>04/02/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>3.42</v>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:58</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.03</v>
+        <v>1.94</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>04/02/2023 22:12</t>
+          <t>06/02/2023 00:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.99</v>
+        <v>2.26</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:57</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-curico-unido/4Mz9Ngnb/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-palestino/WGWP0Wvo/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,24 +4300,24 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>26/02/2023 21:58</t>
+          <t>26/02/2023 21:53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/02/2023 21:53</t>
+          <t>26/02/2023 21:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.21</v>
+        <v>1.87</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:05</t>
+          <t>28/02/2023 00:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.16</v>
+        <v>4.48</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>4.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
         <v>3</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>A. Italiano</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:28</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>4.99</v>
-      </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:29</t>
+          <t>28/02/2023 00:11</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
         </is>
       </c>
     </row>
@@ -19590,6 +19590,190 @@
       <c r="V208" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/u-catolica-u-de-chile/dWFbHn05/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45241.9375</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>3</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>A. Italiano</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>4</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>11/11/2023 22:07</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>11/11/2023 22:07</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T209" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>11/11/2023 22:16</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-a-italiano/nL8BEppO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45242.04166666666</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:51</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:52</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T210" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:51</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-palestino/QB7FD4aU/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V210"/>
+  <dimension ref="A1:V212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Curico Unido</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.34</v>
+        <v>3.43</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>04/02/2023 22:12</t>
+          <t>06/02/2023 00:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.04</v>
+        <v>3.18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:57</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="N26" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>06/02/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
         <v>3.62</v>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>04/02/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.42</v>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:58</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.03</v>
+        <v>1.94</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>04/02/2023 22:12</t>
+          <t>06/02/2023 00:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.99</v>
+        <v>2.26</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:57</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-curico-unido/4Mz9Ngnb/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-palestino/WGWP0Wvo/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.43</v>
+        <v>2.34</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.18</v>
+        <v>2.04</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:58</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.94</v>
+        <v>3.03</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.26</v>
+        <v>3.99</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:57</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-palestino/WGWP0Wvo/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-curico-unido/4Mz9Ngnb/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
         <v>3</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>A. Italiano</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:28</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>4.99</v>
-      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:29</t>
+          <t>28/02/2023 00:11</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.21</v>
+        <v>1.87</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:05</t>
+          <t>28/02/2023 00:28</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.16</v>
+        <v>4.48</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>4.99</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,32 +6224,32 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>18/03/2023 21:46</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>16/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>18/03/2023 21:57</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>16/03/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>18/03/2023 21:57</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18/03/2023 21:46</t>
+          <t>18/03/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.43</v>
+        <v>3.47</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.31</v>
+        <v>3.55</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
         </is>
       </c>
     </row>
@@ -19774,6 +19774,190 @@
       <c r="V210" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/nublense-palestino/QB7FD4aU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T211" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-huachipato/8pELWRah/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45242.79166666666</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>06/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>06/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>06/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-curico-unido/ENEHX7pn/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V212"/>
+  <dimension ref="A1:V215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.43</v>
+        <v>2.34</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.18</v>
+        <v>2.04</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:57</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:58</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.94</v>
+        <v>3.03</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>06/02/2023 00:42</t>
+          <t>04/02/2023 22:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.26</v>
+        <v>3.99</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11/02/2023 00:53</t>
+          <t>11/02/2023 00:57</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-palestino/WGWP0Wvo/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-curico-unido/4Mz9Ngnb/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Curico Unido</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.34</v>
+        <v>3.43</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>04/02/2023 22:12</t>
+          <t>06/02/2023 00:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.04</v>
+        <v>3.18</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:57</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="N27" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>06/02/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
         <v>3.62</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>04/02/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>3.42</v>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:58</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.03</v>
+        <v>1.94</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>04/02/2023 22:12</t>
+          <t>06/02/2023 00:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.99</v>
+        <v>2.26</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>11/02/2023 00:57</t>
+          <t>11/02/2023 00:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-curico-unido/4Mz9Ngnb/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-palestino/WGWP0Wvo/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.21</v>
+        <v>1.87</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:05</t>
+          <t>28/02/2023 00:28</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.48</v>
+        <v>3.62</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.16</v>
+        <v>4.48</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 00:41</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>4.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>28/02/2023 00:11</t>
+          <t>28/02/2023 00:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:05</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>28/02/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>20/02/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
         <v>3</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>A. Italiano</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:28</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>28/02/2023 00:29</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>20/02/2023 00:41</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>4.99</v>
-      </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/02/2023 00:29</t>
+          <t>28/02/2023 00:11</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/everton-a-italiano/EifizXV3/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-o-higgins/08d3XUFM/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18/03/2023 21:46</t>
+          <t>18/03/2023 21:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.43</v>
+        <v>3.47</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.31</v>
+        <v>3.55</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,32 +6316,32 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
+          <t>18/03/2023 21:46</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>16/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
           <t>18/03/2023 21:57</t>
         </is>
       </c>
-      <c r="R64" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>16/03/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>18/03/2023 21:57</t>
-        </is>
-      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
         </is>
       </c>
     </row>
@@ -19958,6 +19958,282 @@
       <c r="V212" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/everton-curico-unido/ENEHX7pn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45242.89583333334</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>2</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:29</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:29</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/colo-colo-union-la-calera/hb97FQUH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>12/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>12/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>12/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-copiapo/ve53G6FB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>U. Espanola</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>3</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>3</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-o-higgins/zXFDYmVu/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V215"/>
+  <dimension ref="A1:V216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20237,6 +20237,98 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45253.91666666666</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>2</v>
+      </c>
+      <c r="J216" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>16/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>23/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>16/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>23/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>16/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T216" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>23/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/palestino-everton/jT9tS3EN/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V216"/>
+  <dimension ref="A1:V220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.29</v>
+        <v>3.61</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.7</v>
+        <v>3.97</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.14</v>
+        <v>4.26</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-de-chile/l8Zu4N7b/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-o-higgins/0CG1aaMT/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>1</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>O'Higgins</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
       <c r="J100" t="n">
-        <v>1.94</v>
+        <v>2.6</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.89</v>
+        <v>2.48</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.29</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.97</v>
+        <v>2.7</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.26</v>
+        <v>3.14</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-o-higgins/0CG1aaMT/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-de-chile/l8Zu4N7b/</t>
         </is>
       </c>
     </row>
@@ -20326,6 +20326,374 @@
       <c r="V216" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/palestino-everton/jT9tS3EN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45254.91666666666</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>2</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:48</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:55</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:46</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-de-chile-coquimbo/CxBxTqaH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45255.02083333334</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>4</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>U. Espanola</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:27</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:27</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:11</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:27</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-u-espanola/YiaoRNTT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45255.91666666666</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/huachipato-u-catolica/4C7UU5U4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45255.91666666666</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:56</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:56</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>18/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:56</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-cobresal/r36YTPqB/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V220"/>
+  <dimension ref="A1:V223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,24 +4300,24 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>26/02/2023 21:53</t>
+          <t>26/02/2023 21:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/02/2023 21:58</t>
+          <t>26/02/2023 21:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>O'Higgins</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.94</v>
+        <v>2.6</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.89</v>
+        <v>2.48</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.29</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.97</v>
+        <v>2.7</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.26</v>
+        <v>3.14</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-o-higgins/0CG1aaMT/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-de-chile/l8Zu4N7b/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.29</v>
+        <v>3.61</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.7</v>
+        <v>3.97</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.14</v>
+        <v>4.26</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-de-chile/l8Zu4N7b/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-o-higgins/0CG1aaMT/</t>
         </is>
       </c>
     </row>
@@ -20694,6 +20694,282 @@
       <c r="V220" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-cobresal/r36YTPqB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45256.91666666666</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>A. Italiano</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:44</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:53</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:44</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/a-italiano-colo-colo/MmIPVoFb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45257.02083333334</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>3</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>4</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:30</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:00</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:30</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/curico-unido-magallanes/8pjDMsxo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45257.02083333334</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:26</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:26</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:26</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-nublense/MmveoREo/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V223"/>
+  <dimension ref="A1:V224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/05/2023 00:12</t>
+          <t>03/05/2023 00:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.59</v>
+        <v>1.92</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>09/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>03/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
           <t>09/05/2023 23:58</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>01/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>09/05/2023 23:58</t>
-        </is>
-      </c>
       <c r="R96" t="n">
-        <v>2.88</v>
+        <v>3.97</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/05/2023 00:12</t>
+          <t>03/05/2023 00:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.9</v>
+        <v>4.26</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/05/2023 23:58</t>
+          <t>09/05/2023 23:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-union-la-calera/ANNl21xB/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-copiapo/WWOp3sN4/</t>
         </is>
       </c>
     </row>
@@ -9313,46 +9313,46 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.92</v>
+        <v>2.59</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/05/2023 23:59</t>
+          <t>09/05/2023 23:58</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.76</v>
+        <v>3.26</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,24 +9360,24 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.97</v>
+        <v>2.88</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.26</v>
+        <v>2.9</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/05/2023 23:59</t>
+          <t>09/05/2023 23:58</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-copiapo/WWOp3sN4/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-union-la-calera/ANNl21xB/</t>
         </is>
       </c>
     </row>
@@ -20813,71 +20813,71 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
-        <v>2.01</v>
+        <v>2.49</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>19/11/2023 03:43</t>
+          <t>19/11/2023 03:42</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>27/11/2023 00:30</t>
+          <t>27/11/2023 00:26</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>19/11/2023 03:43</t>
+          <t>19/11/2023 03:42</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.63</v>
+        <v>3.2</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>27/11/2023 00:00</t>
+          <t>27/11/2023 00:26</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>3.51</v>
+        <v>2.92</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>19/11/2023 03:43</t>
+          <t>19/11/2023 03:42</t>
         </is>
       </c>
       <c r="T222" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>27/11/2023 00:30</t>
+          <t>27/11/2023 00:26</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/curico-unido-magallanes/8pjDMsxo/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-nublense/MmveoREo/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,163 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="G223" t="n">
+        <v>3</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>4</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:30</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:00</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>19/11/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:30</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/curico-unido-magallanes/8pjDMsxo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
         <v>1</v>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Nublense</t>
-        </is>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>19/11/2023 03:42</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>27/11/2023 00:26</t>
-        </is>
-      </c>
-      <c r="N223" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>19/11/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P223" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q223" t="inlineStr">
-        <is>
-          <t>27/11/2023 00:26</t>
-        </is>
-      </c>
-      <c r="R223" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S223" t="inlineStr">
-        <is>
-          <t>19/11/2023 03:42</t>
-        </is>
-      </c>
-      <c r="T223" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U223" t="inlineStr">
-        <is>
-          <t>27/11/2023 00:26</t>
-        </is>
-      </c>
-      <c r="V223" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-nublense/MmveoREo/</t>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:51</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:51</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>25/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>01/12/2023 23:54</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-union-la-calera/d6W7rPb4/</t>
         </is>
       </c>
     </row>

--- a/2023/chile_primera-division_2023.xlsx
+++ b/2023/chile_primera-division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V224"/>
+  <dimension ref="A1:V239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,24 +4300,24 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>20/02/2023 16:42</t>
+          <t>20/02/2023 22:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>26/02/2023 21:58</t>
+          <t>26/02/2023 21:53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>20/02/2023 22:12</t>
+          <t>20/02/2023 16:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>26/02/2023 21:53</t>
+          <t>26/02/2023 21:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-nublense/rXo8WlVS/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-cobresal/IP0rxg1i/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.04</v>
+        <v>2.99</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,32 +6224,32 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>18/03/2023 21:46</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>16/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
           <t>18/03/2023 21:57</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>16/03/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>18/03/2023 21:57</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.36</v>
+        <v>3.53</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18/03/2023 21:46</t>
+          <t>18/03/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.43</v>
+        <v>3.47</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.31</v>
+        <v>3.55</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-colo-colo/KWiB0Tq9/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-coquimbo/ALpOcRTR/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Copiapo</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.06</v>
+        <v>1.48</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>23/04/2023 09:27</t>
+          <t>23/04/2023 20:26</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.93</v>
+        <v>3.9</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>23/04/2023 12:26</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.1</v>
+        <v>4.83</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>16/04/2023 21:12</t>
+          <t>18/04/2023 02:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.58</v>
+        <v>6.51</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>23/04/2023 12:26</t>
+          <t>23/04/2023 20:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-copiapo/bJrxzqgI/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-curico-unido/dEA2j4wa/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Curico Unido</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>23/04/2023 20:26</t>
+          <t>23/04/2023 09:27</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 12:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.83</v>
+        <v>4.1</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>18/04/2023 02:42</t>
+          <t>16/04/2023 21:12</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.51</v>
+        <v>3.58</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>23/04/2023 20:56</t>
+          <t>23/04/2023 12:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-curico-unido/dEA2j4wa/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-copiapo/bJrxzqgI/</t>
         </is>
       </c>
     </row>
@@ -9221,46 +9221,46 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.92</v>
+        <v>2.59</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/05/2023 23:59</t>
+          <t>09/05/2023 23:58</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.76</v>
+        <v>3.26</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,24 +9268,24 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.97</v>
+        <v>2.88</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>03/05/2023 00:12</t>
+          <t>01/05/2023 00:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.26</v>
+        <v>2.9</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/05/2023 23:59</t>
+          <t>09/05/2023 23:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-copiapo/WWOp3sN4/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-union-la-calera/ANNl21xB/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01/05/2023 00:12</t>
+          <t>03/05/2023 00:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.59</v>
+        <v>1.92</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>09/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>03/05/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
           <t>09/05/2023 23:58</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>01/05/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>09/05/2023 23:58</t>
-        </is>
-      </c>
       <c r="R97" t="n">
-        <v>2.88</v>
+        <v>3.97</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>01/05/2023 00:12</t>
+          <t>03/05/2023 00:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.9</v>
+        <v>4.26</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/05/2023 23:58</t>
+          <t>09/05/2023 23:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-union-la-calera/ANNl21xB/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-copiapo/WWOp3sN4/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.29</v>
+        <v>3.61</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.22</v>
+        <v>3.67</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:51</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.7</v>
+        <v>3.97</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.14</v>
+        <v>4.26</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>10/05/2023 23:54</t>
+          <t>10/05/2023 23:55</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-de-chile/l8Zu4N7b/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-o-higgins/0CG1aaMT/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>1</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>O'Higgins</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
       <c r="J100" t="n">
-        <v>1.94</v>
+        <v>2.6</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.89</v>
+        <v>2.48</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.29</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.67</v>
+        <v>3.22</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:51</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.97</v>
+        <v>2.7</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.26</v>
+        <v>3.14</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>10/05/2023 23:55</t>
+          <t>10/05/2023 23:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-o-higgins/0CG1aaMT/</t>
+          <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-u-de-chile/l8Zu4N7b/</t>
         </is>
       </c>
     </row>
@@ -21062,6 +21062,1386 @@
       <c r="V224" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/chile/primera-division/coquimbo-union-la-calera/d6W7rPb4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45262.91666666666</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>A. Italiano</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/a-italiano-magallanes/4WZFt3TG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45262.91666666666</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:50</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:50</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-catolica-copiapo/IFX3q5qb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45262.91666666666</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>4</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:48</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:54</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:54</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/palestino-curico-unido/QoOOvsbT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45263.02083333334</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>2</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:27</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:27</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:27</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/everton-o-higgins/nePKuNrN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45263.91666666666</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>4</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>3</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/cobresal-u-de-chile/0vwapoUi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45263.91666666666</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>U. Espanola</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>26/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/colo-colo-u-espanola/jTVBsqEA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45263.91666666666</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:51</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:51</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/nublense-huachipato/dUAjz16p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45268.91666666666</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Curico Unido</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:38</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/curico-unido-colo-colo/zL9fZKLj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45268.91666666666</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>2</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>A. Italiano</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/huachipato-a-italiano/tIpffMcG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45268.91666666666</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>U. Espanola</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-espanola-cobresal/jTiscODc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45269.91666666666</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Copiapo</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>2</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/copiapo-everton/Otjke2rA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45269.91666666666</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>2</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>3</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>02/12/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>02/12/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>02/12/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/magallanes-coquimbo/pjiodrT3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45269.91666666666</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:57</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/o-higgins-palestino/K8qbgtDM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45269.91666666666</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>U. De Chile</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>3</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>03/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/u-de-chile-nublense/EVr2h0SS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>chile</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>primera-division</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45269.91666666666</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>3</v>
+      </c>
+      <c r="J239" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:22</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:22</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>03/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T239" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:22</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/chile/primera-division/union-la-calera-u-catolica/xQmwb4bi/</t>
         </is>
       </c>
     </row>
